--- a/Assets/Tables/chess.xlsx
+++ b/Assets/Tables/chess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="9630"/>
+    <workbookView windowWidth="16020" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="chess" sheetId="2" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
